--- a/Desenvolvimento/4.Teste/Roteiro de Teste.xlsx
+++ b/Desenvolvimento/4.Teste/Roteiro de Teste.xlsx
@@ -1,34 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\IFSP\PRJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felip\OneDrive\Documentos\sgo\Desenvolvimento\4.Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307B7C04-A5E2-4B23-BD8D-FB413BCCB66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="913" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="913" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
     <sheet name="AUX" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="UCS001" sheetId="3" r:id="rId3"/>
     <sheet name="UCS002" sheetId="27" r:id="rId4"/>
+    <sheet name="UCS003" sheetId="28" r:id="rId5"/>
+    <sheet name="UCS004" sheetId="29" r:id="rId6"/>
+    <sheet name="UCS005" sheetId="30" r:id="rId7"/>
+    <sheet name="UCS006" sheetId="31" r:id="rId8"/>
+    <sheet name="UCS007" sheetId="32" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="___xlfn_IFERROR">NA()</definedName>
     <definedName name="__xlfn_IFERROR">NA()</definedName>
     <definedName name="combo_SimNao">AUX!$A$2:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -111,9 +125,6 @@
     <t>Login Inválido</t>
   </si>
   <si>
-    <t>Manter Cliente</t>
-  </si>
-  <si>
     <t>UCS003</t>
   </si>
   <si>
@@ -129,9 +140,6 @@
     <t>UCS007</t>
   </si>
   <si>
-    <t>UCS008</t>
-  </si>
-  <si>
     <t>Cliente 1</t>
   </si>
   <si>
@@ -174,15 +182,6 @@
     <t>Alteração 2</t>
   </si>
   <si>
-    <t>Erro ao Atualizar o Cliente</t>
-  </si>
-  <si>
-    <t>clientes.txt</t>
-  </si>
-  <si>
-    <t>login.txt</t>
-  </si>
-  <si>
     <t>Login 1</t>
   </si>
   <si>
@@ -195,37 +194,70 @@
     <t>Login 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Login 1: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login: GestorLPS </t>
-  </si>
-  <si>
-    <t>Senha: 123</t>
-  </si>
-  <si>
-    <t>Login 2:</t>
-  </si>
-  <si>
-    <t>Login: Gestor</t>
-  </si>
-  <si>
-    <t>Login 3:</t>
-  </si>
-  <si>
-    <t>Login: GestorLPS</t>
-  </si>
-  <si>
-    <t>Senha: 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login 4: </t>
+    <t>testes.txt</t>
+  </si>
+  <si>
+    <t>Manter Obras</t>
+  </si>
+  <si>
+    <t>Manter Funcionários</t>
+  </si>
+  <si>
+    <t>Gerenciar Etapas</t>
+  </si>
+  <si>
+    <t>Gerar Gráficos</t>
+  </si>
+  <si>
+    <t>Gerar Relatório de Gastos</t>
+  </si>
+  <si>
+    <t>Manter Clientes</t>
+  </si>
+  <si>
+    <t>Cadastrar Clientes</t>
+  </si>
+  <si>
+    <t>Cadastrar Nova Obra</t>
+  </si>
+  <si>
+    <t>Obra 1</t>
+  </si>
+  <si>
+    <t>Obra Cadastrada com Sucesso</t>
+  </si>
+  <si>
+    <t>Cadastrar Obra</t>
+  </si>
+  <si>
+    <t>Cadastrar Gastos</t>
+  </si>
+  <si>
+    <t>Preencha Todas as Informações</t>
+  </si>
+  <si>
+    <t>Finalizar Obra</t>
+  </si>
+  <si>
+    <t>Iniciar Obra</t>
+  </si>
+  <si>
+    <t>Obra Não Iniciada</t>
+  </si>
+  <si>
+    <t>Obra Iniciada com Sucesso</t>
+  </si>
+  <si>
+    <t>Obra Finalizada com Sucesso</t>
+  </si>
+  <si>
+    <t>Obra Já Finalizada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,7 +851,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -907,6 +939,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,25 +972,22 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Bom" xfId="1"/>
+    <cellStyle name="Bom" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Cálculo" xfId="2" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="3"/>
+    <cellStyle name="Célula de Verificação" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="5" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="6"/>
+    <cellStyle name="Neutra" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Nota" xfId="8" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentagem 2" xfId="9"/>
+    <cellStyle name="Porcentagem 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Ruim" xfId="5" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="11" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título 5" xfId="13"/>
+    <cellStyle name="Título 5" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Total" xfId="14" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1383,11 +1418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1409,18 +1444,18 @@
     <row r="1" spans="2:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="24"/>
@@ -1489,11 +1524,9 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="18">
-        <v>6</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1503,11 +1536,15 @@
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="24"/>
       <c r="C7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="20">
+        <v>5</v>
+      </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="18"/>
+      <c r="F7" s="18">
+        <v>5</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="3"/>
@@ -1518,7 +1555,7 @@
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="24"/>
       <c r="C8" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="3"/>
@@ -1533,7 +1570,7 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="3"/>
@@ -1548,7 +1585,7 @@
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="24"/>
       <c r="C10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="3"/>
@@ -1563,7 +1600,7 @@
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="24"/>
       <c r="C11" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="3"/>
@@ -1577,9 +1614,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
-      <c r="C12" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="C12" s="19"/>
       <c r="D12" s="20"/>
       <c r="E12" s="3"/>
       <c r="F12" s="18"/>
@@ -1700,20 +1735,20 @@
       <c r="B21" s="24"/>
       <c r="C21" s="22">
         <f>COUNTA(C5:C19)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="22">
         <f>SUM(D5:D19)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="5">
         <f>SUM(F5:F19)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G21" s="5">
         <f>SUM(G5:G19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
         <f>SUM(H5:H19)</f>
@@ -1721,7 +1756,7 @@
       </c>
       <c r="I21" s="26">
         <f>SUM(F21:H21)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1752,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1789,10 +1824,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IT19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
@@ -1810,52 +1845,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="46">
         <v>4</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="13"/>
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="13" t="s">
         <v>50</v>
       </c>
       <c r="IT5" s="8"/>
     </row>
     <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="14"/>
       <c r="IT6" s="8"/>
     </row>
@@ -1891,10 +1926,10 @@
         <v>24</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32">
@@ -1928,7 +1963,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D10" s="36" t="s">
         <v>26</v>
@@ -1965,7 +2000,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11" s="36" t="s">
         <v>26</v>
@@ -1986,10 +2021,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="12">
@@ -2006,48 +2041,24 @@
       <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>63</v>
-      </c>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>59</v>
-      </c>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
       <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>62</v>
-      </c>
+      <c r="A16" s="33"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
       <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2091,12 +2102,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IT18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2114,53 +2125,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44">
+      <c r="A2" s="46">
         <v>7</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="IT2" s="8"/>
     </row>
     <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="A3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="IT3" s="8"/>
     </row>
     <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="13"/>
       <c r="IT4" s="8"/>
     </row>
     <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="IT5" s="8"/>
     </row>
     <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>23</v>
+      </c>
       <c r="IT6" s="8"/>
     </row>
     <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2192,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32">
@@ -2229,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12">
@@ -2266,13 +2279,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="12">
@@ -2287,11 +2300,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="12">
@@ -2306,13 +2319,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="12">
@@ -2327,20 +2340,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
         <v>1</v>
-      </c>
-      <c r="G14" s="12">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.2">
@@ -2348,11 +2361,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="36"/>
+        <v>36</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="12">
@@ -2361,6 +2376,1235 @@
       <c r="G15" s="12">
         <v>1</v>
       </c>
+    </row>
+    <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377F1F8-0102-40E4-AD11-97944DCFC3A7}">
+  <dimension ref="A1:IT18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="13"/>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36">
+        <v>5</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B06BAB4-0035-46CA-BEDD-85FD68910EB4}">
+  <dimension ref="A1:IT18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="13"/>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64019ABC-05E2-4D65-AA0C-8DDEF3305D32}">
+  <dimension ref="A1:IT18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="13"/>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="14"/>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E91C2-9B79-42C6-B96A-F62836D4173C}">
+  <dimension ref="A1:IT18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="13"/>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CF6846-4414-434C-99FC-51EEA4066216}">
+  <dimension ref="A1:IT18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="254" width="9.140625" style="7"/>
+    <col min="255" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="IT1" s="8"/>
+    </row>
+    <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="IT2" s="8"/>
+    </row>
+    <row r="3" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="IT3" s="8"/>
+    </row>
+    <row r="4" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="13"/>
+      <c r="IT4" s="8"/>
+    </row>
+    <row r="5" spans="1:254" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="IT5" s="8"/>
+    </row>
+    <row r="6" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="IT6" s="8"/>
+    </row>
+    <row r="7" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:254" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+    </row>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+    </row>
+    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:254" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>

--- a/Desenvolvimento/4.Teste/Roteiro de Teste.xlsx
+++ b/Desenvolvimento/4.Teste/Roteiro de Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felip\OneDrive\Documentos\sgo\Desenvolvimento\4.Teste\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307B7C04-A5E2-4B23-BD8D-FB413BCCB66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4891907-05A5-45CE-B2CD-68DECD6398E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="913" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="913" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
   <si>
     <t>Caso de Uso</t>
   </si>
@@ -252,6 +252,132 @@
   </si>
   <si>
     <t>Obra Já Finalizada</t>
+  </si>
+  <si>
+    <t>Cadastro de Funcionário</t>
+  </si>
+  <si>
+    <t>Consulta de Funcionário</t>
+  </si>
+  <si>
+    <t>Alteração de Funcionário</t>
+  </si>
+  <si>
+    <t>Remoção de Funcionário</t>
+  </si>
+  <si>
+    <t>Funcionário 1</t>
+  </si>
+  <si>
+    <t>Funcionário 2</t>
+  </si>
+  <si>
+    <t>Funcionário 3</t>
+  </si>
+  <si>
+    <t>Funcionário Cadastrado com Sucesso</t>
+  </si>
+  <si>
+    <t>DataGridView Preenchido com os Dados dos Funcionários 1 e 2</t>
+  </si>
+  <si>
+    <t>Funcionário Atualizado com Sucesso</t>
+  </si>
+  <si>
+    <t>Funcionário Removido com Sucesso</t>
+  </si>
+  <si>
+    <t>Abrir Página de Relatório</t>
+  </si>
+  <si>
+    <t>Gerar .PDF</t>
+  </si>
+  <si>
+    <t>Filtrar</t>
+  </si>
+  <si>
+    <t>DataGridView Carregado com os Gastos Cadastrados no Banco</t>
+  </si>
+  <si>
+    <t>Gerar um Arquivo .PDF com os Dados do Grid</t>
+  </si>
+  <si>
+    <t>Filtrar os Gastos por Data</t>
+  </si>
+  <si>
+    <t>Gerar um Arquivo .PDF com os Dados Atualizados do Grid</t>
+  </si>
+  <si>
+    <t>Gráfico de Gastos por Etapa</t>
+  </si>
+  <si>
+    <t>Gráfico de Gastos por Tipo</t>
+  </si>
+  <si>
+    <t>Gráfico de Gastos por Mês</t>
+  </si>
+  <si>
+    <t>Gráfico Comparativo de Gastos</t>
+  </si>
+  <si>
+    <t>Inserir Etapa</t>
+  </si>
+  <si>
+    <t>Etapa 1</t>
+  </si>
+  <si>
+    <t>Etapa 2</t>
+  </si>
+  <si>
+    <t>Etapa 3</t>
+  </si>
+  <si>
+    <t>Inserir Gasto</t>
+  </si>
+  <si>
+    <t>Gasto 1 - (Etapa 1)</t>
+  </si>
+  <si>
+    <t>Gasto 2 - (Etapa 1)</t>
+  </si>
+  <si>
+    <t>Gasto 3 - (Etapa 1)</t>
+  </si>
+  <si>
+    <t>Gasto 1 - (Etapa 2)</t>
+  </si>
+  <si>
+    <t>Gasto 2 - (Etapa 2)</t>
+  </si>
+  <si>
+    <t>Gasto 3 - (Etapa 2)</t>
+  </si>
+  <si>
+    <t>Gasto 1 - (Etapa 3)</t>
+  </si>
+  <si>
+    <t>Gasto 2 - (Etapa 3)</t>
+  </si>
+  <si>
+    <t>Gasto 3 - (Etapa 3)</t>
+  </si>
+  <si>
+    <t>Etapa Inserida com Sucesso</t>
+  </si>
+  <si>
+    <t>Gasto Inserido com Sucesso</t>
+  </si>
+  <si>
+    <t>Gráfico com as Colunas (Serviços Iniciais, Estrutura e Paredes) nos Valores de R$ 5400, R$ 2800 e R$ 1800</t>
+  </si>
+  <si>
+    <t>Gráfico com as Colunas (Mão de Obra, Material e Ferramenta) nos Valores de R$ 8000, R$ 1000 e R$ 1000</t>
+  </si>
+  <si>
+    <t>Gráfico com as Colunas (1, 2 e 3) nos Valores de R$ 5400, R$ 2800 e R$ 1800</t>
+  </si>
+  <si>
+    <t>Gráfico com as Colunas (Previsto, Realizado) nos Valores de R$ 12000 e R$ 10000</t>
   </si>
 </sst>
 </file>
@@ -851,7 +977,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -971,6 +1097,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -1422,7 +1554,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1557,9 +1689,13 @@
       <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20">
+        <v>7</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18">
+        <v>7</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="3"/>
@@ -1572,9 +1708,13 @@
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="20">
+        <v>12</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="18"/>
+      <c r="F9" s="18">
+        <v>12</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="3"/>
@@ -1587,9 +1727,13 @@
       <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="20">
+        <v>4</v>
+      </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18">
+        <v>4</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="3"/>
@@ -1602,9 +1746,13 @@
       <c r="C11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>4</v>
+      </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="18">
+        <v>4</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="3"/>
@@ -1739,12 +1887,12 @@
       </c>
       <c r="D21" s="22">
         <f>SUM(D5:D19)</f>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="5">
         <f>SUM(F5:F19)</f>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G21" s="5">
         <f>SUM(G5:G19)</f>
@@ -1756,7 +1904,7 @@
       </c>
       <c r="I21" s="26">
         <f>SUM(F21:H21)</f>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1829,7 +1977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2107,7 +2255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2421,12 +2569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377F1F8-0102-40E4-AD11-97944DCFC3A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:IT18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2452,7 +2600,9 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="46">
+        <v>5</v>
+      </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="IT2" s="8"/>
@@ -2712,12 +2862,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B06BAB4-0035-46CA-BEDD-85FD68910EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IT18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2743,7 +2893,9 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="46">
+        <v>7</v>
+      </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="IT2" s="8"/>
@@ -2809,13 +2961,25 @@
       </c>
     </row>
     <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="35">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2834,13 +2998,25 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2859,49 +3035,107 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="36"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="38">
+        <v>4</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>78</v>
+      </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="38">
+        <v>5</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>79</v>
+      </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="38">
+        <v>6</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="36"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="38">
+        <v>7</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
@@ -2947,12 +3181,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64019ABC-05E2-4D65-AA0C-8DDEF3305D32}">
-  <dimension ref="A1:IT18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:IT20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3042,13 +3276,25 @@
       </c>
     </row>
     <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="A9" s="36">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -3067,13 +3313,25 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -3092,73 +3350,214 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="36">
+        <v>3</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="E11" s="36"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="A12" s="36">
+        <v>4</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>107</v>
+      </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="A13" s="36">
+        <v>5</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>107</v>
+      </c>
       <c r="E13" s="36"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="36">
+        <v>6</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>107</v>
+      </c>
       <c r="E14" s="36"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="36">
+        <v>7</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>107</v>
+      </c>
       <c r="E15" s="36"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="A16" s="36">
+        <v>8</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="A17" s="36">
+        <v>9</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="A18" s="36">
+        <v>10</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="50">
+        <v>11</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="51">
+        <v>0</v>
+      </c>
+      <c r="G19" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="50">
+        <v>12</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="51">
+        <v>0</v>
+      </c>
+      <c r="G20" s="51">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3180,12 +3579,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E91C2-9B79-42C6-B96A-F62836D4173C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:IT18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3193,7 +3592,7 @@
     <col min="1" max="1" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" style="7" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="68" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="7" customWidth="1"/>
     <col min="6" max="7" width="15.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="7"/>
@@ -3211,7 +3610,9 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="46">
+        <v>4</v>
+      </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="IT2" s="8"/>
@@ -3276,14 +3677,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
+    <row r="9" spans="1:254" s="10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>88</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="36" t="s">
+        <v>108</v>
+      </c>
       <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>1</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -3301,14 +3712,24 @@
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
-    <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+    <row r="10" spans="1:254" s="10" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="36" t="s">
+        <v>109</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -3326,50 +3747,66 @@
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
     </row>
-    <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
+    <row r="11" spans="1:254" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="36">
+        <v>3</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>90</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="36" t="s">
+        <v>110</v>
+      </c>
       <c r="E11" s="36"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:254" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36">
+        <v>4</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>91</v>
+      </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>111</v>
+      </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
@@ -3415,12 +3852,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CF6846-4414-434C-99FC-51EEA4066216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:IT18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3446,7 +3883,9 @@
       <c r="IT1" s="8"/>
     </row>
     <row r="2" spans="1:254" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
+      <c r="A2" s="46">
+        <v>4</v>
+      </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="IT2" s="8"/>
@@ -3512,10 +3951,16 @@
       </c>
     </row>
     <row r="9" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="35">
+        <v>1</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
@@ -3537,10 +3982,16 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:254" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="38">
+        <v>2</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="36" t="s">
+        <v>85</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -3562,49 +4013,55 @@
       <c r="W10" s="9"/>
     </row>
     <row r="11" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="38">
+        <v>3</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>83</v>
+      </c>
       <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="D11" s="36" t="s">
+        <v>86</v>
+      </c>
       <c r="E11" s="36"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="36">
+        <v>4</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="E12" s="36"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:254" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:254" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:254" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
